--- a/src/analysis_examples/circadb/results_jtk/cosinor_10471036_dolpp1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10471036_dolpp1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20376932398632147, 0.3205916527756982]</t>
+          <t>[0.20635685846727728, 0.3180041182947424]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.381371653318979e-09</v>
+        <v>2.922473152366933e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>6.381371653318979e-09</v>
+        <v>2.922473152366933e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.006315965113847</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4561083015479548, 0.5166268660859794]</t>
+          <t>[0.45609401432254293, 0.5166411533113913]</t>
         </is>
       </c>
       <c r="U2" t="n">
